--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление о переводе.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление о переводе.xlsx
@@ -15,14 +15,14 @@
     <sheet name="о переводе" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'о переводе'!$A$1:$D$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'о переводе'!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>(наименование должности (профессии))</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">     Прошу перевести меня ___________________________________________________________________________________________________________________________________________________________________________________________________ _______________ </t>
+  </si>
+  <si>
+    <t>Бухгалтер _______________________________________</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,21 +833,26 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
     </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+    <row r="34" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EYtH8XZJXwwFdza8TqXYmnKRJMQqz/ktxrHvqu6OlanU8clHV5erYbGD685yS9Ddape51mZtytA55W6RFbddIA==" saltValue="el40ZFQyXZ20duIj3xVXmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A34:D35"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:B11"/>
@@ -853,6 +861,11 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.39583333333333331" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
